--- a/Planning_experimetns/Distribution_for_data_split.xlsx
+++ b/Planning_experimetns/Distribution_for_data_split.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\Fairness_Metric\Planning_experimetns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A71A9-FBAE-4E6F-8E04-0087CA1AD0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008E05F5-98A8-4732-A79C-8E79832A67F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C456F9EE-8B5F-4346-A517-CE086514BDBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{C456F9EE-8B5F-4346-A517-CE086514BDBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Long Tail to uniform" sheetId="1" r:id="rId1"/>
+    <sheet name="Long Tail to uniform_Redo" sheetId="3" r:id="rId2"/>
+    <sheet name="Move_1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>dist1</t>
   </si>
@@ -67,6 +91,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Less bias (Excluding dist 1-2)</t>
+  </si>
+  <si>
+    <t>Increasing Bias</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Increments</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Class 4</t>
+  </si>
+  <si>
+    <t>disr4</t>
+  </si>
+  <si>
+    <t>Class 8</t>
+  </si>
+  <si>
+    <t>dist9</t>
   </si>
 </sst>
 </file>
@@ -124,13 +175,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +274,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>'Long Tail to uniform'!$F$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -234,7 +291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$H$2</c:f>
+              <c:f>'Long Tail to uniform'!$F$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -274,7 +331,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>'Long Tail to uniform'!$F$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -291,7 +348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$H$3</c:f>
+              <c:f>'Long Tail to uniform'!$F$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -331,7 +388,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>'Long Tail to uniform'!$F$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -348,7 +405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$H$4</c:f>
+              <c:f>'Long Tail to uniform'!$F$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -388,7 +445,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>'Long Tail to uniform'!$F$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -405,7 +462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$H$5</c:f>
+              <c:f>'Long Tail to uniform'!$F$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -445,7 +502,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>'Long Tail to uniform'!$F$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -462,7 +519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$H$6</c:f>
+              <c:f>'Long Tail to uniform'!$F$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -680,7 +737,3181 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$17:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$18:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19.444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$16:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dist6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dist8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dist9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AA79-4666-9466-FCF1B67331B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1944129920"/>
+        <c:axId val="1944127008"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1944129920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944127008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1944127008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944129920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9358705161854772E-2"/>
+          <c:y val="0.19949074074074077"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>disr4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7DC-4D23-B20E-F0BFFAB3F69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>disr4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7DC-4D23-B20E-F0BFFAB3F69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>disr4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7DC-4D23-B20E-F0BFFAB3F69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>disr4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7DC-4D23-B20E-F0BFFAB3F69C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1505062928"/>
+        <c:axId val="1505064592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1505062928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505064592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1505064592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505062928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F86F-4969-A942-F347DFC6114F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long Tail to uniform_Redo'!$K$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F86F-4969-A942-F347DFC6114F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1696553936"/>
+        <c:axId val="1696544784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1696553936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696544784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1696544784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696553936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$H$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-716C-4D0B-B6C6-AF03DC168AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$H$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-716C-4D0B-B6C6-AF03DC168AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$H$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-716C-4D0B-B6C6-AF03DC168AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$H$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-716C-4D0B-B6C6-AF03DC168AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$H$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$H$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-716C-4D0B-B6C6-AF03DC168AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1505034640"/>
+        <c:axId val="1505053776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1505034640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505053776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1505053776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505034640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$B$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D21-404C-851E-2AC13BBF8015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$B$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D21-404C-851E-2AC13BBF8015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$B$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D21-404C-851E-2AC13BBF8015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$B$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D21-404C-851E-2AC13BBF8015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Move_1!$B$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>dist1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dist2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dist3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dist4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dist5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Move_1!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2D21-404C-851E-2AC13BBF8015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1505074160"/>
+        <c:axId val="1505060016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1505074160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505060016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1505060016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505074160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1223,20 +4454,2526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1256,6 +6993,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E882A30B-7F63-4178-B7F9-D09762A4A2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75402F1D-49C8-4831-A940-C9BD1D7271E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A470DACF-FC0D-4327-9FC6-FF2620E4164D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B3A2EA-7706-4415-9A48-76E5DF7D21C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E68E9A7-55C5-4243-BD93-B836A2DD319D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1563,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9A0FC1-6D16-498F-AE46-32C7E35FC6A6}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,7 +8165,7 @@
       <c r="I18" s="4">
         <v>8</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18">
         <f t="shared" si="9"/>
         <v>6.666666666666667</v>
@@ -2338,7 +8265,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D19:E24" si="12">C20-1</f>
+        <f t="shared" ref="D20:E24" si="12">C20-1</f>
         <v>8</v>
       </c>
       <c r="E20">
@@ -2643,27 +8570,27 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <f>C25-1</f>
+        <f t="shared" ref="D25:I25" si="17">C25-1</f>
         <v>13</v>
       </c>
       <c r="E25">
-        <f>D25-1</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="F25">
-        <f>E25-1</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="G25">
-        <f>F25-1</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="H25">
-        <f>G25-1</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="I25">
-        <f>H25-1</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="K25">
@@ -2708,63 +8635,63 @@
         <v>120</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:K26" si="17">SUM(C11:C25)</f>
+        <f t="shared" ref="C26:K26" si="18">SUM(C11:C25)</f>
         <v>120</v>
       </c>
       <c r="D26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="E26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="F26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="G26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="H26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="I26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="K26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="18">SUM(L11:L25)</f>
+        <f t="shared" ref="L26" si="19">SUM(L11:L25)</f>
         <v>100</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="19">SUM(M11:M25)</f>
+        <f t="shared" ref="M26" si="20">SUM(M11:M25)</f>
         <v>99.999999999999986</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26" si="20">SUM(N11:N25)</f>
+        <f t="shared" ref="N26" si="21">SUM(N11:N25)</f>
         <v>100</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26" si="21">SUM(O11:O25)</f>
+        <f t="shared" ref="O26" si="22">SUM(O11:O25)</f>
         <v>100</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="22">SUM(P11:P25)</f>
+        <f t="shared" ref="P26" si="23">SUM(P11:P25)</f>
         <v>100</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="23">SUM(Q11:Q25)</f>
+        <f t="shared" ref="Q26" si="24">SUM(Q11:Q25)</f>
         <v>100.00000000000001</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26" si="24">SUM(R11:R25)</f>
+        <f t="shared" ref="R26" si="25">SUM(R11:R25)</f>
         <v>100.00000000000001</v>
       </c>
     </row>
@@ -2797,4 +8724,1702 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0AD880-496E-48A4-BD79-2AAD1A09CD9C}">
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>A4/$A$6*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L4">
+        <f>B4/$A$6*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>A5/$A$6*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="L5">
+        <f>B5/$A$6*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f>SUM(A4:A5)</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(B4:B5)</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="K6" s="5">
+        <f>SUM(K4:K5)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="L6" s="5">
+        <f>SUM(L4:L5)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <f>A9+$B$1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:D9" si="0">B9+$B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>A9/$A$13*100</f>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:N12" si="1">B9/$A$13*100</f>
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <f>A10+$B$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K12" si="2">A10/$A$13*100</f>
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <f>A11-$B$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <f>A12-$B$1</f>
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="5">
+        <f>B12-$B$1</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12-$B$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f>SUM(A9:A12)</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" ref="B13:D13" si="3">SUM(B9:B12)</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="K13" s="5">
+        <f>SUM(K9:K12)</f>
+        <v>100</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ref="L13:N13" si="4">SUM(L9:L12)</f>
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <f>A17+$B$1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17+$B$1</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <f>C17+$B$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17+$B$1</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <f>E17+$B$1</f>
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:H17" si="5">F17+$B$1</f>
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>A17/$A$25*100</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:R24" si="6">B17/$A$25*100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <f>A18+$B$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="5">
+        <f>B18+$B$1</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <f>C18+$B$1</f>
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18+$B$1</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <f>E18+$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K24" si="7">A18/$A$25*100</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <f>A19+$B$1</f>
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="5">
+        <f>B19+$B$1</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19+$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <f>A20+$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <f>A21-$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <f>A22-$B$1</f>
+        <v>5.5</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22-$B$1</f>
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <f>C22-$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>15.277777777777779</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <f>A23-$B$1</f>
+        <v>6.5</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:D23" si="8">B23-$B$1</f>
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="5">
+        <f>D23-$B$1</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <f>E23-$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>18.055555555555554</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>15.277777777777779</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <f>A24-$B$1</f>
+        <v>7.5</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:D24" si="9">B24-$B$1</f>
+        <v>7</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="9"/>
+        <v>6.5</v>
+      </c>
+      <c r="E24" s="5">
+        <f>D24-$B$1</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="5">
+        <f>E24-$B$1</f>
+        <v>5.5</v>
+      </c>
+      <c r="G24" s="5">
+        <f>F24-$B$1</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <f>G24-$B$1</f>
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>18.055555555555554</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>15.277777777777779</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>SUM(A16:A24)</f>
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:H25" si="10">SUM(B16:B24)</f>
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="11">SUM(K16:K24)</f>
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="12">SUM(L16:L24)</f>
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="13">SUM(M16:M24)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25" si="14">SUM(N16:N24)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25" si="15">SUM(O16:O24)</f>
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25" si="16">SUM(P16:P24)</f>
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25" si="17">SUM(Q16:Q24)</f>
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25" si="18">SUM(R16:R24)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:N12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:R24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:R35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4670A448-247F-448C-82C0-35C56F01BBE4}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3-1</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>B3/B$8*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L7" si="1">C3/C$8*100</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>C4-1</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>D4</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="2">B4/B$8*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5:C7">B5:B7</f>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>C5+1</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>D5-1</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>D6+1</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>E6-1</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7</f>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>E7+1</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D3:D7)</f>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E3:E7)</f>
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:L8" si="3">SUM(H3:H7)</f>
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>D12</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>B12/B$8*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I16" si="4">C12/C$8*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J16" si="5">D12/D$8*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="6">E12/E$8*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L16" si="7">F12/F$8*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H16" si="8">B13/B$8*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>C14+1</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>D14-1</f>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f>E14</f>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>D16</f>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B12:B16)</f>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D12:D16)</f>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E12:E16)</f>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F12:F16)</f>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:L17" si="9">SUM(H12:H16)</f>
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A10:L10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:L7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:L16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>